--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3446207.810573331</v>
+        <v>3441902.687576262</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454257</v>
+        <v>7854648.981454255</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.11693918766137</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>109.9645463939862</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.53696330591268</v>
       </c>
       <c r="W3" t="n">
-        <v>185.6028078378932</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404939</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>47.11788494260751</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425986</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372558</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>154.5936063949819</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.93523985611758</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937538</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974428</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>152.020070210757</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>101.4992000302467</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.13281470719822</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304088</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>195.4545481816573</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>226.4341290878622</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>50.75306527549993</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.85664025634886</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.854692234071578</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>212.8988206105707</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.86507844888251</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>75.92936329650635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>57.82449082152434</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161915776</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>241.7859926947193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>100.9410961977589</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>151.044645682067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>65.38324202937362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>54.29785174158985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>112.7606860319987</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>43.34824157860987</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>163.7145813714357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6.434538210426277</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>244.6418937426531</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>211.3673327389939</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4333,49 +4333,49 @@
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262257</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262257</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097409</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097409</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="W2" t="n">
-        <v>293.402456393256</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="X2" t="n">
-        <v>293.402456393256</v>
+        <v>400.7871177554787</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.9826713767711</v>
+        <v>400.7871177554787</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.9896429540875</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4415,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>696.0246079522367</v>
       </c>
       <c r="W3" t="n">
-        <v>562.6247649906404</v>
+        <v>696.0246079522367</v>
       </c>
       <c r="X3" t="n">
-        <v>373.2049799741555</v>
+        <v>696.0246079522367</v>
       </c>
       <c r="Y3" t="n">
-        <v>373.2049799741555</v>
+        <v>506.6048229357519</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.5134254262204</v>
+        <v>1185.147817799032</v>
       </c>
       <c r="C5" t="n">
-        <v>505.5134254262204</v>
+        <v>816.1853008586202</v>
       </c>
       <c r="D5" t="n">
-        <v>505.5134254262204</v>
+        <v>457.9196022518697</v>
       </c>
       <c r="E5" t="n">
-        <v>505.5134254262204</v>
+        <v>457.9196022518697</v>
       </c>
       <c r="F5" t="n">
-        <v>94.52752063661285</v>
+        <v>46.93369746226208</v>
       </c>
       <c r="G5" t="n">
-        <v>82.15187949110842</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H5" t="n">
-        <v>82.15187949110842</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017204</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746947</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030713</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709109</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582743</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079228</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332745</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583787</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540638</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300985</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726300985</v>
+        <v>1571.747657863154</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726300985</v>
+        <v>1571.747657863154</v>
       </c>
       <c r="V5" t="n">
-        <v>1231.747838957414</v>
+        <v>1571.747657863154</v>
       </c>
       <c r="W5" t="n">
-        <v>878.9791836873003</v>
+        <v>1571.747657863154</v>
       </c>
       <c r="X5" t="n">
-        <v>505.5134254262204</v>
+        <v>1571.747657863154</v>
       </c>
       <c r="Y5" t="n">
-        <v>505.5134254262204</v>
+        <v>1571.747657863154</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>760.9485776663496</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>760.9485776663496</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>612.0141680050983</v>
+        <v>340.3300692953282</v>
       </c>
       <c r="E6" t="n">
-        <v>452.7767129996428</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>306.2421550265278</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>169.1601681404877</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814666</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787444</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806044</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189946</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223452</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352414</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228311</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639499</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906539</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906539</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906539</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="T6" t="n">
-        <v>1250.338042626294</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="U6" t="n">
-        <v>1250.338042626294</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="V6" t="n">
-        <v>1015.185934394551</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="W6" t="n">
-        <v>760.9485776663496</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>760.9485776663496</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>760.9485776663496</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="C7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="D7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306131</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306131</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306131</v>
+        <v>164.2295249028574</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306131</v>
+        <v>164.2295249028574</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306131</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675739</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.240666625746</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584098</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347947</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195333</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934676</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857957</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857957</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857957</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="S7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="T7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="U7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="V7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="W7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="X7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.629914118058</v>
+        <v>332.5350520040915</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.965392032323</v>
+        <v>789.5335540906474</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.965392032323</v>
+        <v>420.5710371502357</v>
       </c>
       <c r="D8" t="n">
-        <v>852.6996934255721</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
-        <v>852.6996934255721</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>441.7137886359646</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.723147379776</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947426</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1971.030990357524</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1971.030990357524</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.030990357524</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.030990357524</v>
+        <v>1939.738484391661</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.565232096444</v>
+        <v>1566.272726130581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1597.565232096444</v>
+        <v>1176.133394154769</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697.3228929089576</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>522.8698636278306</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>522.8698636278306</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>363.6324086223751</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4901,34 +4901,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1367.172048607646</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1112.934691879444</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>905.0831916739114</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>697.3228929089576</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>351.3531641126922</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>201.2365247003565</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>53.32343111796334</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4965,49 +4965,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>292.2997961425816</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.50721699905151</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154078</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4207169875009</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154078</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2252.031751697596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2585.956523868816</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3081.282130084575</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3678.660617711127</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711127</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2138.653968900169</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1849.578742244367</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5785,7 +5785,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
         <v>261.0127623330919</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6918836311994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>651.5752442188636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,25 +6244,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>119.2902967703784</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>991.7138464380538</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.342175037157</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000197</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102179</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586493</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U34" t="n">
-        <v>4166.484834438346</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V34" t="n">
-        <v>3911.80034623246</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W34" t="n">
-        <v>3622.383176195499</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X34" t="n">
-        <v>3394.393625297482</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y34" t="n">
-        <v>3173.601046153952</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="35">
@@ -6925,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2233.355914590559</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2233.355914590559</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2830.734402217111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3458.332365771718</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4010.242096011005</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4433.865245506073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4667.126905880956</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,7 +7405,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,16 +7426,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118214</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2772.332236394372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3369.710724020924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2881.772575583815</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2881.772575583815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2881.772575583815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001422</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503512</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218392</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3512.203170455602</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3284.213619557585</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3063.421040414055</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.506629716717612</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>72.686109721706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>159.5809595057639</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393007</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>44.73700564187172</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>45.49286644881028</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>74.66500970697012</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>186.7544012944544</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>112.9489693570384</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>208.7894017452181</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>122.8084169651553</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244619</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132551</v>
@@ -26352,7 +26352,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.604713255</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26368,34 +26368,34 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253083</v>
+        <v>270592.362025312</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231966</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854445</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881876</v>
+        <v>62913.63765881962</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197575</v>
+        <v>27875.25362197491</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515981</v>
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263473</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26447,16 +26447,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="O4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14826.69604186732</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26472,7 +26472,7 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.7347193679</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421269</v>
+        <v>-167415.6306421266</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534386</v>
+        <v>205831.1174534354</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564951</v>
+        <v>384651.5111564986</v>
       </c>
       <c r="E6" t="n">
-        <v>29218.17127321541</v>
+        <v>28870.79201885835</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.3788474803</v>
+        <v>630313.999593124</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.3788474815</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931241</v>
       </c>
       <c r="J6" t="n">
-        <v>581596.4341189363</v>
+        <v>581249.0548645795</v>
       </c>
       <c r="K6" t="n">
-        <v>567747.7411886617</v>
+        <v>567400.361934304</v>
       </c>
       <c r="L6" t="n">
-        <v>602786.1252255049</v>
+        <v>602438.7459711491</v>
       </c>
       <c r="M6" t="n">
-        <v>473514.9982958825</v>
+        <v>473167.6190415256</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931236</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931239</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950585</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594674</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,25 +26810,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821538</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262551</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039897</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931474</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666958</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931474</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666956</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734854</v>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931474</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666958</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758192</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871033</v>
+        <v>141.2047141710441</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2636238435126</v>
       </c>
       <c r="W3" t="n">
-        <v>66.0921753230264</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.217724577385</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714736</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>45.74000278499339</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>55.14713511994688</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>6.535138496343805</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074836</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>99.67491295016265</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>44.93476261632249</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>16.16290655271476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589201</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166226</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>12.61770968794653</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>122.8068396295508</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>94.31614711788396</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.39188093250797</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.9753399255884</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108566</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429353</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.618001842805</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286693</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520253</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511757</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968078</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610675</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191469</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860946</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634643</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098723</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898954</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920248</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868528</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030881</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403509</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062462</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647593</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431662</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721875</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658068</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468649</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374438</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872477</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547489</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632156</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947708</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378854</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757159</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236991</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1672760237798</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734515</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635523</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260794</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162523</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539913</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752848</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.432318627534</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514992</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235538</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054685</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391191</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830776</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656321</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31542,22 +31542,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31609,19 +31609,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31630,10 +31630,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31679,22 +31679,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31706,13 +31706,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>147.487348193741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>150.7833302198378</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>581.2949959490409</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>512.9101366533177</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171343</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>531.8166820790236</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198297</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070448</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811885</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695351</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644765</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974602</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730825</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890148</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092631</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457303</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923133</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437885</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635316</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929993</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729175</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872741</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554404</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501398</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923079</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761479</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756912</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235162</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35190,7 +35190,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35260,7 +35260,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35272,7 +35272,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>20.64972152707428</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>23.94570355317105</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>442.7406161691667</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>370.3138922088733</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317035</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>393.2623022991495</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3441902.687576262</v>
+        <v>3443663.217879047</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454255</v>
+        <v>7854648.981454257</v>
       </c>
     </row>
     <row r="11">
@@ -667,55 +667,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>143.2690424640647</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>125.4713171199747</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666375</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>77.08171901666378</v>
-      </c>
-      <c r="S2" t="n">
-        <v>158.7758131900531</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>109.9645463939862</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.53696330591268</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>122.0580154038965</v>
       </c>
       <c r="Y3" t="n">
         <v>187.52558716632</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443443</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>167.6953232406452</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>154.5936063949819</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074799</v>
+        <v>44.33060630074824</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>149.029374217784</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>152.020070210757</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>119.3342385144854</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.13281470719822</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304052</v>
+        <v>30.24193919304076</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589159</v>
+        <v>36.91115760589187</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>62.17401768251553</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>226.4341290878622</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>20.27697994470623</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>115.539654257146</v>
       </c>
       <c r="F10" t="n">
-        <v>9.854692234071578</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881308</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>212.8988206105707</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578138</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141713</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444149</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161915776</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>108.0275736005889</v>
       </c>
       <c r="E25" t="n">
-        <v>1.799772605716619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187883</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>41.02686156550228</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206844</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106825009</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6418937426531</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="C2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="D2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>293.402456393256</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>286.4569556440525</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
@@ -4333,49 +4333,49 @@
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433436</v>
+        <v>482.8222414097409</v>
       </c>
       <c r="U2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="V2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="W2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="X2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.402456393256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.3894859156838</v>
+        <v>364.227097959543</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345569</v>
+        <v>189.774068678416</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>189.774068678416</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
@@ -4415,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="V3" t="n">
-        <v>696.0246079522367</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="W3" t="n">
-        <v>696.0246079522367</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="X3" t="n">
-        <v>696.0246079522367</v>
+        <v>553.6468829760279</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.6048229357519</v>
+        <v>364.227097959543</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1185.147817799032</v>
+        <v>984.9948285919479</v>
       </c>
       <c r="C5" t="n">
-        <v>816.1853008586202</v>
+        <v>616.0323116515362</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518697</v>
+        <v>616.0323116515362</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518697</v>
+        <v>616.0323116515362</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226208</v>
+        <v>609.0868109023328</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675766</v>
+        <v>439.6975955077417</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675766</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.670553901721</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746975</v>
+        <v>277.9807166746958</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030759</v>
+        <v>521.2049416030727</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709172</v>
+        <v>823.5081935709127</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582745</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079231</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1621.822248332749</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837883</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="T5" t="n">
-        <v>1571.747657863154</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="U5" t="n">
-        <v>1571.747657863154</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="V5" t="n">
-        <v>1571.747657863154</v>
+        <v>1727.902815837874</v>
       </c>
       <c r="W5" t="n">
-        <v>1571.747657863154</v>
+        <v>1375.13416056776</v>
       </c>
       <c r="X5" t="n">
-        <v>1571.747657863154</v>
+        <v>1375.13416056776</v>
       </c>
       <c r="Y5" t="n">
-        <v>1571.747657863154</v>
+        <v>984.9948285919479</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953282</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787527</v>
+        <v>61.66788464787469</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.157723980605</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189977</v>
+        <v>399.8722171189956</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223499</v>
+        <v>668.6238185223467</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352478</v>
+        <v>958.8971200352435</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228313</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639502</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906542</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703773</v>
+        <v>1401.100270703766</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703773</v>
+        <v>1258.309378699362</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703773</v>
+        <v>1107.774657267257</v>
       </c>
       <c r="U6" t="n">
-        <v>1401.100270703773</v>
+        <v>1107.774657267257</v>
       </c>
       <c r="V6" t="n">
-        <v>1401.100270703773</v>
+        <v>872.6225490355139</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>618.3851923073123</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>410.5336921017794</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>202.7733933368255</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="C7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="D7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="E7" t="n">
-        <v>332.5350520040915</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="F7" t="n">
-        <v>332.5350520040915</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="G7" t="n">
-        <v>164.2295249028574</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="H7" t="n">
-        <v>164.2295249028574</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675766</v>
+        <v>34.55805631675747</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574685</v>
+        <v>64.24066662574627</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584103</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347954</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195365</v>
+        <v>287.8841338195343</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934715</v>
+        <v>342.3101561934689</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857972</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="X7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
       <c r="Y7" t="n">
-        <v>332.5350520040915</v>
+        <v>332.5350520040882</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>789.5335540906474</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="C8" t="n">
-        <v>420.5710371502357</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348519</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>125.1073766066322</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>118.1618758574287</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>106.1712346012401</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>106.1712346012401</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1572.544009457209</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1241.481122113638</v>
       </c>
       <c r="W8" t="n">
-        <v>1939.738484391661</v>
+        <v>888.7124668435238</v>
       </c>
       <c r="X8" t="n">
-        <v>1566.272726130581</v>
+        <v>515.2467085824439</v>
       </c>
       <c r="Y8" t="n">
-        <v>1176.133394154769</v>
+        <v>125.1073766066322</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>351.3531641126922</v>
+        <v>328.5302436235452</v>
       </c>
       <c r="D10" t="n">
-        <v>201.2365247003565</v>
+        <v>178.4136042112094</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32343111796334</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934483</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1702.079034721981</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,28 +5266,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,61 +5649,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854707</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362698</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6372,46 +6372,46 @@
         <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
         <v>2338.476105524075</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,43 +6709,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,46 +7414,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1730.34805652803</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.663568322143</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1186.246398285183</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>958.2568473871653</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.4642682436352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124949</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.506629716717612</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.9259388694744928</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.6341900408517</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172142</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393007</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>40.58789941762343</v>
       </c>
       <c r="E25" t="n">
-        <v>144.6341900408526</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>176.378588761786</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.73700564187155</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244617</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="H2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025312</v>
+        <v>270592.3620253095</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231932</v>
+        <v>115410.0540231956</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742658</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854445</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881962</v>
+        <v>62913.63765881901</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197491</v>
+        <v>27875.25362197552</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.422926347</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186724</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186724</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186727</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>76435.73471936797</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26493,25 +26493,25 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.6306421266</v>
+        <v>-167415.6306421268</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534354</v>
+        <v>205831.1174534378</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564986</v>
+        <v>384651.5111564961</v>
       </c>
       <c r="E6" t="n">
-        <v>28870.79201885835</v>
+        <v>29183.43334777968</v>
       </c>
       <c r="F6" t="n">
-        <v>630313.999593124</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="G6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220455</v>
       </c>
       <c r="H6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220456</v>
       </c>
       <c r="I6" t="n">
-        <v>630313.9995931241</v>
+        <v>630626.6409220455</v>
       </c>
       <c r="J6" t="n">
-        <v>581249.0548645795</v>
+        <v>581561.696193501</v>
       </c>
       <c r="K6" t="n">
-        <v>567400.361934304</v>
+        <v>567713.0032632264</v>
       </c>
       <c r="L6" t="n">
-        <v>602438.7459711491</v>
+        <v>602751.3873000698</v>
       </c>
       <c r="M6" t="n">
-        <v>473167.6190415256</v>
+        <v>473480.2603704472</v>
       </c>
       <c r="N6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220456</v>
       </c>
       <c r="O6" t="n">
-        <v>630313.9995931236</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="P6" t="n">
-        <v>630313.9995931239</v>
+        <v>630626.6409220453</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950613</v>
+        <v>758.8996292950594</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,10 +26792,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594707</v>
+        <v>431.9757039594684</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821568</v>
+        <v>210.4296883821547</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262278</v>
+        <v>94.81103524262471</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931484</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666925</v>
+        <v>110.1392527666949</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,22 +27038,22 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931484</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666947</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27260,13 +27260,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931484</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666925</v>
+        <v>110.1392527666949</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>269.8287907659933</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>141.2047141710441</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2636238435126</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>83.714969799581</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849682</v>
+        <v>93.20510176849672</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.5565614934042</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760046</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425915</v>
+        <v>23.94240680425963</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
-        <v>55.14713511994688</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.3208508493753</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>44.55583787965878</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>99.67491295016265</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>27.09972413208372</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>16.16290655271476</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>15.98958889456745</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>122.8068396295508</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>115.230253902329</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>30.89430838942322</v>
       </c>
       <c r="F10" t="n">
-        <v>135.5663557888597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.250415110587462e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.218495731948021e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.197504089314887e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-2.374982052931271e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-1.640217466592266e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29754,10 +29754,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.266978096147472e-12</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-6.084075771919461e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-6.084075771919461e-14</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.314252923878114e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.033794153969709e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085664</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429356</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286696</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520268</v>
+        <v>388.0799144520258</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511775</v>
+        <v>481.4474502511763</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.7030533968084</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610695</v>
+        <v>544.3712888610681</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191475</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860951</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634647</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098725</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898963</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.244068222486853</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030882</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.7650658840351</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062469</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475932</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316623</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.427605172188</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658084</v>
+        <v>413.6002979658073</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468654</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374452</v>
+        <v>388.3776244374442</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872481</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547492</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947712</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378879</v>
+        <v>6.579516597378862</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.107391456975716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236992</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377981</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.1547536673452</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635559</v>
+        <v>96.75348224635535</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162525</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399132</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528482</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275342</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514994</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054708</v>
+        <v>61.53307486054693</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391194</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830783</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656349</v>
+        <v>0.0746458651765633</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912044</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724546</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113943</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198332</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070452</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811891</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695357</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644786</v>
+        <v>314.9582252644772</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974607</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308267</v>
+        <v>207.4834477308256</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890152</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092688</v>
+        <v>27.38366498092648</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573033</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923138</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.466264043789</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635321</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799929998</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729179</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872818</v>
+        <v>68.38629016872764</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554464</v>
+        <v>29.98243465554424</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501472</v>
+        <v>68.57507023501421</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923087</v>
+        <v>75.59399159230816</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761559</v>
+        <v>81.73343028761505</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569191</v>
+        <v>54.97578017569143</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235182</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691861</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>159.0482712280102</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>462.200585628061</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795101</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819351</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
